--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Slit2-Gpc1.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Slit2-Gpc1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Gpc1</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>M2</t>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>4.0681399414842</v>
+        <v>0.143896</v>
       </c>
       <c r="H2">
-        <v>4.0681399414842</v>
+        <v>0.431688</v>
       </c>
       <c r="I2">
-        <v>0.8712213027132831</v>
+        <v>0.02807111181859822</v>
       </c>
       <c r="J2">
-        <v>0.8712213027132831</v>
+        <v>0.02807111181859822</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.427094602961813</v>
+        <v>0.8478306666666667</v>
       </c>
       <c r="N2">
-        <v>0.427094602961813</v>
+        <v>2.543492</v>
       </c>
       <c r="O2">
-        <v>0.007473288305827285</v>
+        <v>0.01460351867535248</v>
       </c>
       <c r="P2">
-        <v>0.007473288305827285</v>
+        <v>0.01460351867535248</v>
       </c>
       <c r="Q2">
-        <v>1.737480613101288</v>
+        <v>0.1219994416106667</v>
       </c>
       <c r="R2">
-        <v>1.737480613101288</v>
+        <v>1.097994974496</v>
       </c>
       <c r="S2">
-        <v>0.006510887973354792</v>
+        <v>0.000409937005680807</v>
       </c>
       <c r="T2">
-        <v>0.006510887973354792</v>
+        <v>0.0004099370056808069</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>4.0681399414842</v>
+        <v>0.143896</v>
       </c>
       <c r="H3">
-        <v>4.0681399414842</v>
+        <v>0.431688</v>
       </c>
       <c r="I3">
-        <v>0.8712213027132831</v>
+        <v>0.02807111181859822</v>
       </c>
       <c r="J3">
-        <v>0.8712213027132831</v>
+        <v>0.02807111181859822</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>7.00556545766106</v>
+        <v>7.020353</v>
       </c>
       <c r="N3">
-        <v>7.00556545766106</v>
+        <v>21.061059</v>
       </c>
       <c r="O3">
-        <v>0.122583170209545</v>
+        <v>0.1209225617494376</v>
       </c>
       <c r="P3">
-        <v>0.122583170209545</v>
+        <v>0.1209225617494376</v>
       </c>
       <c r="Q3">
-        <v>28.499620650993</v>
+        <v>1.010200715288</v>
       </c>
       <c r="R3">
-        <v>28.499620650993</v>
+        <v>9.091806437592</v>
       </c>
       <c r="S3">
-        <v>0.1067970692406839</v>
+        <v>0.00339443075225981</v>
       </c>
       <c r="T3">
-        <v>0.1067970692406839</v>
+        <v>0.00339443075225981</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>4.0681399414842</v>
+        <v>0.143896</v>
       </c>
       <c r="H4">
-        <v>4.0681399414842</v>
+        <v>0.431688</v>
       </c>
       <c r="I4">
-        <v>0.8712213027132831</v>
+        <v>0.02807111181859822</v>
       </c>
       <c r="J4">
-        <v>0.8712213027132831</v>
+        <v>0.02807111181859822</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.04735402990028</v>
+        <v>1.462291666666667</v>
       </c>
       <c r="N4">
-        <v>1.04735402990028</v>
+        <v>4.386875</v>
       </c>
       <c r="O4">
-        <v>0.01832656879631579</v>
+        <v>0.02518734518879435</v>
       </c>
       <c r="P4">
-        <v>0.01832656879631579</v>
+        <v>0.02518734518879435</v>
       </c>
       <c r="Q4">
-        <v>4.260782761911766</v>
+        <v>0.2104179216666666</v>
       </c>
       <c r="R4">
-        <v>4.260782761911766</v>
+        <v>1.893761295</v>
       </c>
       <c r="S4">
-        <v>0.01596649714099085</v>
+        <v>0.0007070367832082782</v>
       </c>
       <c r="T4">
-        <v>0.01596649714099085</v>
+        <v>0.0007070367832082782</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>4.0681399414842</v>
+        <v>0.143896</v>
       </c>
       <c r="H5">
-        <v>4.0681399414842</v>
+        <v>0.431688</v>
       </c>
       <c r="I5">
-        <v>0.8712213027132831</v>
+        <v>0.02807111181859822</v>
       </c>
       <c r="J5">
-        <v>0.8712213027132831</v>
+        <v>0.02807111181859822</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>48.6694742583723</v>
+        <v>48.72612633333333</v>
       </c>
       <c r="N5">
-        <v>48.6694742583723</v>
+        <v>146.178379</v>
       </c>
       <c r="O5">
-        <v>0.8516169726883119</v>
+        <v>0.8392865743864156</v>
       </c>
       <c r="P5">
-        <v>0.8516169726883119</v>
+        <v>0.8392865743864156</v>
       </c>
       <c r="Q5">
-        <v>197.9942321615215</v>
+        <v>7.011494674861333</v>
       </c>
       <c r="R5">
-        <v>197.9942321615215</v>
+        <v>63.103452073752</v>
       </c>
       <c r="S5">
-        <v>0.7419468483582535</v>
+        <v>0.02355970727744933</v>
       </c>
       <c r="T5">
-        <v>0.7419468483582535</v>
+        <v>0.02355970727744933</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.6013279983086079</v>
+        <v>4.277274333333334</v>
       </c>
       <c r="H6">
-        <v>0.6013279983086079</v>
+        <v>12.831823</v>
       </c>
       <c r="I6">
-        <v>0.128778697286717</v>
+        <v>0.8344071140950421</v>
       </c>
       <c r="J6">
-        <v>0.128778697286717</v>
+        <v>0.8344071140950421</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.427094602961813</v>
+        <v>0.8478306666666667</v>
       </c>
       <c r="N6">
-        <v>0.427094602961813</v>
+        <v>2.543492</v>
       </c>
       <c r="O6">
-        <v>0.007473288305827285</v>
+        <v>0.01460351867535248</v>
       </c>
       <c r="P6">
-        <v>0.007473288305827285</v>
+        <v>0.01460351867535248</v>
       </c>
       <c r="Q6">
-        <v>0.2568239426874367</v>
+        <v>3.626404349546223</v>
       </c>
       <c r="R6">
-        <v>0.2568239426874367</v>
+        <v>32.637639145916</v>
       </c>
       <c r="S6">
-        <v>0.0009624003324724937</v>
+        <v>0.01218527987353392</v>
       </c>
       <c r="T6">
-        <v>0.0009624003324724937</v>
+        <v>0.01218527987353392</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +832,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.6013279983086079</v>
+        <v>4.277274333333334</v>
       </c>
       <c r="H7">
-        <v>0.6013279983086079</v>
+        <v>12.831823</v>
       </c>
       <c r="I7">
-        <v>0.128778697286717</v>
+        <v>0.8344071140950421</v>
       </c>
       <c r="J7">
-        <v>0.128778697286717</v>
+        <v>0.8344071140950421</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>7.00556545766106</v>
+        <v>7.020353</v>
       </c>
       <c r="N7">
-        <v>7.00556545766106</v>
+        <v>21.061059</v>
       </c>
       <c r="O7">
-        <v>0.122583170209545</v>
+        <v>0.1209225617494376</v>
       </c>
       <c r="P7">
-        <v>0.122583170209545</v>
+        <v>0.1209225617494376</v>
       </c>
       <c r="Q7">
-        <v>4.212642653675252</v>
+        <v>30.02797569783967</v>
       </c>
       <c r="R7">
-        <v>4.212642653675252</v>
+        <v>270.251781280557</v>
       </c>
       <c r="S7">
-        <v>0.0157861009688611</v>
+        <v>0.1008986457783277</v>
       </c>
       <c r="T7">
-        <v>0.0157861009688611</v>
+        <v>0.1008986457783277</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +894,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
         <v>25</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.6013279983086079</v>
+        <v>4.277274333333334</v>
       </c>
       <c r="H8">
-        <v>0.6013279983086079</v>
+        <v>12.831823</v>
       </c>
       <c r="I8">
-        <v>0.128778697286717</v>
+        <v>0.8344071140950421</v>
       </c>
       <c r="J8">
-        <v>0.128778697286717</v>
+        <v>0.8344071140950421</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.04735402990028</v>
+        <v>1.462291666666667</v>
       </c>
       <c r="N8">
-        <v>1.04735402990028</v>
+        <v>4.386875</v>
       </c>
       <c r="O8">
-        <v>0.01832656879631579</v>
+        <v>0.02518734518879435</v>
       </c>
       <c r="P8">
-        <v>0.01832656879631579</v>
+        <v>0.02518734518879435</v>
       </c>
       <c r="Q8">
-        <v>0.6298033023203893</v>
+        <v>6.254622613680556</v>
       </c>
       <c r="R8">
-        <v>0.6298033023203893</v>
+        <v>56.291603523125</v>
       </c>
       <c r="S8">
-        <v>0.002360071655324944</v>
+        <v>0.02101650001069753</v>
       </c>
       <c r="T8">
-        <v>0.002360071655324944</v>
+        <v>0.02101650001069753</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +956,309 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>4.277274333333334</v>
+      </c>
+      <c r="H9">
+        <v>12.831823</v>
+      </c>
+      <c r="I9">
+        <v>0.8344071140950421</v>
+      </c>
+      <c r="J9">
+        <v>0.8344071140950421</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>48.72612633333333</v>
+      </c>
+      <c r="N9">
+        <v>146.178379</v>
+      </c>
+      <c r="O9">
+        <v>0.8392865743864156</v>
+      </c>
+      <c r="P9">
+        <v>0.8392865743864156</v>
+      </c>
+      <c r="Q9">
+        <v>208.4150095283241</v>
+      </c>
+      <c r="R9">
+        <v>1875.735085754917</v>
+      </c>
+      <c r="S9">
+        <v>0.7003066884324829</v>
+      </c>
+      <c r="T9">
+        <v>0.7003066884324829</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
         <v>23</v>
       </c>
-      <c r="D9" t="s">
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.7049536666666666</v>
+      </c>
+      <c r="H10">
+        <v>2.114861</v>
+      </c>
+      <c r="I10">
+        <v>0.1375217740863597</v>
+      </c>
+      <c r="J10">
+        <v>0.1375217740863597</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.8478306666666667</v>
+      </c>
+      <c r="N10">
+        <v>2.543492</v>
+      </c>
+      <c r="O10">
+        <v>0.01460351867535248</v>
+      </c>
+      <c r="P10">
+        <v>0.01460351867535248</v>
+      </c>
+      <c r="Q10">
+        <v>0.5976813371791111</v>
+      </c>
+      <c r="R10">
+        <v>5.379132034612</v>
+      </c>
+      <c r="S10">
+        <v>0.002008301796137759</v>
+      </c>
+      <c r="T10">
+        <v>0.00200830179613776</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
         <v>21</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>0.6013279983086079</v>
-      </c>
-      <c r="H9">
-        <v>0.6013279983086079</v>
-      </c>
-      <c r="I9">
-        <v>0.128778697286717</v>
-      </c>
-      <c r="J9">
-        <v>0.128778697286717</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>48.6694742583723</v>
-      </c>
-      <c r="N9">
-        <v>48.6694742583723</v>
-      </c>
-      <c r="O9">
-        <v>0.8516169726883119</v>
-      </c>
-      <c r="P9">
-        <v>0.8516169726883119</v>
-      </c>
-      <c r="Q9">
-        <v>29.26631753451933</v>
-      </c>
-      <c r="R9">
-        <v>29.26631753451933</v>
-      </c>
-      <c r="S9">
-        <v>0.1096701243300584</v>
-      </c>
-      <c r="T9">
-        <v>0.1096701243300584</v>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.7049536666666666</v>
+      </c>
+      <c r="H11">
+        <v>2.114861</v>
+      </c>
+      <c r="I11">
+        <v>0.1375217740863597</v>
+      </c>
+      <c r="J11">
+        <v>0.1375217740863597</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>7.020353</v>
+      </c>
+      <c r="N11">
+        <v>21.061059</v>
+      </c>
+      <c r="O11">
+        <v>0.1209225617494376</v>
+      </c>
+      <c r="P11">
+        <v>0.1209225617494376</v>
+      </c>
+      <c r="Q11">
+        <v>4.949023588644333</v>
+      </c>
+      <c r="R11">
+        <v>44.541212297799</v>
+      </c>
+      <c r="S11">
+        <v>0.01662948521885003</v>
+      </c>
+      <c r="T11">
+        <v>0.01662948521885004</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.7049536666666666</v>
+      </c>
+      <c r="H12">
+        <v>2.114861</v>
+      </c>
+      <c r="I12">
+        <v>0.1375217740863597</v>
+      </c>
+      <c r="J12">
+        <v>0.1375217740863597</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>1.462291666666667</v>
+      </c>
+      <c r="N12">
+        <v>4.386875</v>
+      </c>
+      <c r="O12">
+        <v>0.02518734518879435</v>
+      </c>
+      <c r="P12">
+        <v>0.02518734518879435</v>
+      </c>
+      <c r="Q12">
+        <v>1.030847872152778</v>
+      </c>
+      <c r="R12">
+        <v>9.277630849374999</v>
+      </c>
+      <c r="S12">
+        <v>0.003463808394888536</v>
+      </c>
+      <c r="T12">
+        <v>0.003463808394888536</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.7049536666666666</v>
+      </c>
+      <c r="H13">
+        <v>2.114861</v>
+      </c>
+      <c r="I13">
+        <v>0.1375217740863597</v>
+      </c>
+      <c r="J13">
+        <v>0.1375217740863597</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>48.72612633333333</v>
+      </c>
+      <c r="N13">
+        <v>146.178379</v>
+      </c>
+      <c r="O13">
+        <v>0.8392865743864156</v>
+      </c>
+      <c r="P13">
+        <v>0.8392865743864156</v>
+      </c>
+      <c r="Q13">
+        <v>34.34966142114655</v>
+      </c>
+      <c r="R13">
+        <v>309.146952790319</v>
+      </c>
+      <c r="S13">
+        <v>0.1154201786764834</v>
+      </c>
+      <c r="T13">
+        <v>0.1154201786764834</v>
       </c>
     </row>
   </sheetData>
